--- a/Ontology/Factory/DataSet.xlsx
+++ b/Ontology/Factory/DataSet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\Desktop\workable_check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\Documents\GitHub\DigitalTwin\Ontology\Factory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6ED8A5-32B4-4197-B6B6-89D37352885C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8577C7-2867-47F6-8400-0B72B73604D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     "LightCurtainResolution": 0.01,
     "LightCurtainRange": 10
  }</t>
-  </si>
-  <si>
-    <t>dtmi:DigitalTwin:Pallet;1</t>
   </si>
   <si>
     <t>Pallet1</t>
@@ -363,6 +360,9 @@
    "Numberoffloors": 2,
    "TotalEnergyConsumption": 75000
 }</t>
+  </si>
+  <si>
+    <t>dtmi:DigitalTwin:PalletTurnTable;1</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="61" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -711,7 +711,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -963,10 +963,10 @@
     </row>
     <row r="9" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -975,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="10" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -1013,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1039,10 +1039,10 @@
     </row>
     <row r="11" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1051,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1116,10 +1116,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -1154,10 +1154,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1192,16 +1192,16 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1227,19 +1227,19 @@
     </row>
     <row r="16" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1265,19 +1265,19 @@
     </row>
     <row r="17" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1303,19 +1303,19 @@
     </row>
     <row r="18" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1344,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1380,10 +1380,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -1418,10 +1418,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -1456,10 +1456,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -1491,19 +1491,19 @@
     </row>
     <row r="23" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1529,19 +1529,19 @@
     </row>
     <row r="24" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1567,19 +1567,19 @@
     </row>
     <row r="25" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1608,7 +1608,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -1644,10 +1644,10 @@
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
@@ -1682,10 +1682,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
@@ -1720,10 +1720,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -1755,19 +1755,19 @@
     </row>
     <row r="30" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1793,19 +1793,19 @@
     </row>
     <row r="31" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="32" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1872,7 +1872,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1908,10 +1908,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -1946,10 +1946,10 @@
         <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
@@ -1984,10 +1984,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
@@ -2019,19 +2019,19 @@
     </row>
     <row r="37" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2057,19 +2057,19 @@
     </row>
     <row r="38" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2095,19 +2095,19 @@
     </row>
     <row r="39" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2136,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
@@ -2172,10 +2172,10 @@
         <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
@@ -2210,10 +2210,10 @@
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
@@ -2248,10 +2248,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
@@ -2283,19 +2283,19 @@
     </row>
     <row r="44" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2321,19 +2321,19 @@
     </row>
     <row r="45" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2359,19 +2359,19 @@
     </row>
     <row r="46" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2400,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>11</v>
@@ -2436,10 +2436,10 @@
         <v>15</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>9</v>
@@ -2474,10 +2474,10 @@
         <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
@@ -2512,10 +2512,10 @@
         <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
@@ -2547,19 +2547,19 @@
     </row>
     <row r="51" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2585,19 +2585,19 @@
     </row>
     <row r="52" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2623,19 +2623,19 @@
     </row>
     <row r="53" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2664,7 +2664,7 @@
         <v>13</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>11</v>
@@ -2700,10 +2700,10 @@
         <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
@@ -2738,10 +2738,10 @@
         <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
@@ -2776,10 +2776,10 @@
         <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
@@ -2811,19 +2811,19 @@
     </row>
     <row r="58" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2849,19 +2849,19 @@
     </row>
     <row r="59" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="60" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -2928,7 +2928,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
@@ -2964,10 +2964,10 @@
         <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
@@ -3002,10 +3002,10 @@
         <v>18</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
@@ -3040,10 +3040,10 @@
         <v>21</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
@@ -3075,19 +3075,19 @@
     </row>
     <row r="65" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3113,19 +3113,19 @@
     </row>
     <row r="66" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -3151,19 +3151,19 @@
     </row>
     <row r="67" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3192,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>11</v>
@@ -3228,10 +3228,10 @@
         <v>15</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
@@ -3266,10 +3266,10 @@
         <v>18</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
@@ -3304,10 +3304,10 @@
         <v>21</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
@@ -3339,19 +3339,19 @@
     </row>
     <row r="72" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -3377,19 +3377,19 @@
     </row>
     <row r="73" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -3415,19 +3415,19 @@
     </row>
     <row r="74" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>

--- a/Ontology/Factory/DataSet.xlsx
+++ b/Ontology/Factory/DataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\Documents\GitHub\DigitalTwin\Ontology\Factory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8577C7-2867-47F6-8400-0B72B73604D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29035DEF-34F5-489A-BF21-4F1742B02A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
  }</t>
   </si>
   <si>
-    <t>Pallet1</t>
-  </si>
-  <si>
     <t>dtmi:DigitalTwin:Door;1</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
   }</t>
   </si>
   <si>
-    <t>Pallet2</t>
-  </si>
-  <si>
     <t>Door2</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
   </si>
   <si>
     <t>LightCurtainSensor3</t>
-  </si>
-  <si>
-    <t>Pallet3</t>
   </si>
   <si>
     <t>Door3</t>
@@ -190,9 +181,6 @@
     <t>LightCurtainSensor4</t>
   </si>
   <si>
-    <t>Pallet4</t>
-  </si>
-  <si>
     <t>Door4</t>
   </si>
   <si>
@@ -209,9 +197,6 @@
   </si>
   <si>
     <t>LightCurtainSensor5</t>
-  </si>
-  <si>
-    <t>Pallet5</t>
   </si>
   <si>
     <t>Door5</t>
@@ -232,9 +217,6 @@
     <t>LightCurtainSensor6</t>
   </si>
   <si>
-    <t>Pallet6</t>
-  </si>
-  <si>
     <t>Door6</t>
   </si>
   <si>
@@ -251,9 +233,6 @@
   </si>
   <si>
     <t>LightCurtainSensor7</t>
-  </si>
-  <si>
-    <t>Pallet7</t>
   </si>
   <si>
     <t>Door7</t>
@@ -274,9 +253,6 @@
     <t>LightCurtainSensor8</t>
   </si>
   <si>
-    <t>Pallet8</t>
-  </si>
-  <si>
     <t>Door8</t>
   </si>
   <si>
@@ -295,9 +271,6 @@
     <t>LightCurtainSensor9</t>
   </si>
   <si>
-    <t>Pallet9</t>
-  </si>
-  <si>
     <t>Door9</t>
   </si>
   <si>
@@ -314,9 +287,6 @@
   </si>
   <si>
     <t>LightCurtainSensor10</t>
-  </si>
-  <si>
-    <t>Pallet10</t>
   </si>
   <si>
     <t>Door10</t>
@@ -363,6 +333,36 @@
   </si>
   <si>
     <t>dtmi:DigitalTwin:PalletTurnTable;1</t>
+  </si>
+  <si>
+    <t>PalletTurnTable1</t>
+  </si>
+  <si>
+    <t>PalletTurnTable10</t>
+  </si>
+  <si>
+    <t>PalletTurnTable9</t>
+  </si>
+  <si>
+    <t>PalletTurnTable8</t>
+  </si>
+  <si>
+    <t>PalletTurnTable6</t>
+  </si>
+  <si>
+    <t>PalletTurnTable7</t>
+  </si>
+  <si>
+    <t>PalletTurnTable5</t>
+  </si>
+  <si>
+    <t>PalletTurnTable4</t>
+  </si>
+  <si>
+    <t>PalletTurnTable3</t>
+  </si>
+  <si>
+    <t>PalletTurnTable2</t>
   </si>
 </sst>
 </file>
@@ -649,8 +649,8 @@
   <dimension ref="A1:Z1061"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="61" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -711,7 +711,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -963,10 +963,10 @@
     </row>
     <row r="9" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -975,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="10" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -1013,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1039,10 +1039,10 @@
     </row>
     <row r="11" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1051,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1116,10 +1116,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -1154,10 +1154,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1192,16 +1192,16 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1227,19 +1227,19 @@
     </row>
     <row r="16" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1265,19 +1265,19 @@
     </row>
     <row r="17" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1303,19 +1303,19 @@
     </row>
     <row r="18" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1344,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1380,10 +1380,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -1418,10 +1418,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -1456,10 +1456,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -1491,19 +1491,19 @@
     </row>
     <row r="23" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1529,19 +1529,19 @@
     </row>
     <row r="24" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1567,19 +1567,19 @@
     </row>
     <row r="25" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1608,7 +1608,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -1644,10 +1644,10 @@
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
@@ -1682,10 +1682,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
@@ -1720,10 +1720,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -1755,19 +1755,19 @@
     </row>
     <row r="30" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1793,19 +1793,19 @@
     </row>
     <row r="31" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="32" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1872,7 +1872,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1908,10 +1908,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -1946,10 +1946,10 @@
         <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
@@ -1984,10 +1984,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
@@ -2019,19 +2019,19 @@
     </row>
     <row r="37" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2057,19 +2057,19 @@
     </row>
     <row r="38" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2095,19 +2095,19 @@
     </row>
     <row r="39" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2136,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
@@ -2172,10 +2172,10 @@
         <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
@@ -2210,10 +2210,10 @@
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
@@ -2248,10 +2248,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
@@ -2283,19 +2283,19 @@
     </row>
     <row r="44" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2321,19 +2321,19 @@
     </row>
     <row r="45" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2359,19 +2359,19 @@
     </row>
     <row r="46" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2400,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>11</v>
@@ -2436,10 +2436,10 @@
         <v>15</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>9</v>
@@ -2474,10 +2474,10 @@
         <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
@@ -2512,10 +2512,10 @@
         <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
@@ -2547,19 +2547,19 @@
     </row>
     <row r="51" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2585,19 +2585,19 @@
     </row>
     <row r="52" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2623,19 +2623,19 @@
     </row>
     <row r="53" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2664,7 +2664,7 @@
         <v>13</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>11</v>
@@ -2700,10 +2700,10 @@
         <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
@@ -2738,10 +2738,10 @@
         <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
@@ -2776,10 +2776,10 @@
         <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
@@ -2811,19 +2811,19 @@
     </row>
     <row r="58" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2849,19 +2849,19 @@
     </row>
     <row r="59" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="60" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -2928,7 +2928,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
@@ -2964,10 +2964,10 @@
         <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
@@ -3002,10 +3002,10 @@
         <v>18</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
@@ -3040,10 +3040,10 @@
         <v>21</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
@@ -3075,19 +3075,19 @@
     </row>
     <row r="65" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3113,19 +3113,19 @@
     </row>
     <row r="66" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -3151,19 +3151,19 @@
     </row>
     <row r="67" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3192,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>11</v>
@@ -3228,10 +3228,10 @@
         <v>15</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
@@ -3266,10 +3266,10 @@
         <v>18</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
@@ -3304,10 +3304,10 @@
         <v>21</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
@@ -3339,19 +3339,19 @@
     </row>
     <row r="72" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -3377,19 +3377,19 @@
     </row>
     <row r="73" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -3415,19 +3415,19 @@
     </row>
     <row r="74" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
